--- a/mouse2joystick_citra_keylist_automation.xlsx
+++ b/mouse2joystick_citra_keylist_automation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinker\Desktop\citra-windows-msvc-20170528-3df85a1\mouse2joystick_citra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinker\Desktop\citra-windows-msvc-20170528-3df85a1\mouse2joystick_citra-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -188,9 +188,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>Paste the line below into mouse2joystick's keylist:</t>
-  </si>
-  <si>
     <t>Game 2</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>(The other 3 lists are optional for other games)</t>
+  </si>
+  <si>
+    <t>Paste the line below into mouse2joystick_citra's keylist:</t>
   </si>
 </sst>
 </file>
@@ -454,14 +454,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -824,7 +817,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +853,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -874,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>11</v>
@@ -937,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>7</v>
@@ -1222,13 +1215,13 @@
         <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/mouse2joystick_citra_keylist_automation.xlsx
+++ b/mouse2joystick_citra_keylist_automation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinker\Desktop\citra-windows-msvc-20170528-3df85a1\mouse2joystick_citra-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinker\Desktop\mouse2joystick_citra-2017-06-01_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -252,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -404,11 +404,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,11 +480,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -817,7 +884,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -869,7 +936,7 @@
       <c r="F3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -888,9 +955,9 @@
       </c>
       <c r="F4" s="14" t="str">
         <f>D3&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;D7&amp;","&amp;D8&amp;","&amp;D9&amp;","&amp;D10&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;","&amp;D17&amp;","&amp;D18&amp;","&amp;D19&amp;","&amp;D20&amp;","&amp;D21</f>
-        <v>Space,LButton,q,e,Up,Down,Left,Right,Rbutton,Mbutton,Enter,Rshift,4,5,g,w,s,a,d</v>
-      </c>
-      <c r="H4" s="10" t="s">
+        <v>Space,LButton,q,e,Up,Down,Left,Right,Rbutton,Mbutton,Enter,Rshift,1,3,g,w,s,a,d</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -898,7 +965,7 @@
       </c>
       <c r="K4" s="14" t="str">
         <f>I3&amp;","&amp;I4&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;I10&amp;","&amp;I11&amp;","&amp;I12&amp;","&amp;I13&amp;","&amp;I14&amp;","&amp;I15&amp;","&amp;I16&amp;","&amp;I17&amp;","&amp;I18&amp;","&amp;I19&amp;","&amp;I20&amp;","&amp;I21</f>
-        <v>Space,LButton,q,e,Up,Down,Left,Right,Rbutton,Mbutton,Enter,Rshift,4,5,g,w,s,a,d</v>
+        <v>Space,LButton,q,e,Up,Down,Left,Right,Rbutton,Mbutton,Enter,Rshift,1,3,g,w,s,a,d</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -912,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -932,7 +999,7 @@
       <c r="F6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -950,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -968,7 +1035,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -986,7 +1053,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -1004,7 +1071,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
@@ -1022,7 +1089,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -1040,7 +1107,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -1058,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -1076,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -1091,14 +1158,14 @@
         <v>3</v>
       </c>
       <c r="D15" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1109,14 +1176,14 @@
         <v>2</v>
       </c>
       <c r="D16" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1130,7 +1197,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -1148,7 +1215,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="I18" s="11" t="s">
@@ -1166,7 +1233,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="11" t="s">
@@ -1184,14 +1251,14 @@
         <v>52</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1202,22 +1269,22 @@
         <v>53</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -1225,7 +1292,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1233,9 +1300,9 @@
       </c>
       <c r="F24" s="14" t="str">
         <f>D24&amp;","&amp;D25&amp;","&amp;D26&amp;","&amp;D27&amp;","&amp;D28&amp;","&amp;D29&amp;","&amp;D30&amp;","&amp;D31&amp;","&amp;D32&amp;","&amp;D33&amp;","&amp;D34&amp;","&amp;D35&amp;","&amp;D36&amp;","&amp;D37&amp;","&amp;D38&amp;","&amp;D39&amp;","&amp;D40&amp;","&amp;D41&amp;","&amp;D42</f>
-        <v>Space,LButton,q,e,Up,Down,Left,Right,Rbutton,Mbutton,Enter,Rshift,4,5,g,w,s,a,d</v>
-      </c>
-      <c r="H24" s="6" t="s">
+        <v>Space,LButton,q,e,Up,Down,Left,Right,Rbutton,Mbutton,Enter,Rshift,1,3,g,w,s,a,d</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="7" t="s">
@@ -1243,17 +1310,17 @@
       </c>
       <c r="K24" s="14" t="str">
         <f>I24&amp;","&amp;I25&amp;","&amp;I26&amp;","&amp;I27&amp;","&amp;I28&amp;","&amp;I29&amp;","&amp;I30&amp;","&amp;I31&amp;","&amp;I32&amp;","&amp;I33&amp;","&amp;I34&amp;","&amp;I35&amp;","&amp;I36&amp;","&amp;I37&amp;","&amp;I38&amp;","&amp;I39&amp;","&amp;I40&amp;","&amp;I41&amp;","&amp;I42</f>
-        <v>Space,LButton,q,e,Up,Down,Left,Right,Rbutton,Mbutton,Enter,Rshift,4,5,g,w,s,a,d</v>
+        <v>Space,LButton,q,e,Up,Down,Left,Right,Rbutton,Mbutton,Enter,Rshift,1,3,g,w,s,a,d</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="11" t="s">
@@ -1261,13 +1328,13 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="11" t="s">
@@ -1275,13 +1342,13 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -1289,13 +1356,13 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -1303,13 +1370,13 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -1317,13 +1384,13 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -1331,13 +1398,13 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -1345,13 +1412,13 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -1359,13 +1426,13 @@
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -1373,13 +1440,13 @@
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -1387,13 +1454,13 @@
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -1401,41 +1468,41 @@
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="11">
-        <v>4</v>
-      </c>
-      <c r="H36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I36" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="11">
-        <v>5</v>
-      </c>
-      <c r="H37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I37" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -1443,13 +1510,13 @@
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>42</v>
       </c>
       <c r="I39" s="11" t="s">
@@ -1457,13 +1524,13 @@
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="11" t="s">
@@ -1471,66 +1538,81 @@
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
+    <row r="42" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="17" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10 B3:D21 F6">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I21">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="I3:I14 I17:I21">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I42">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="I24:I35 I38:I42">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D42">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="D24:D35 D38:D42">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C42">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H21">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H42">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D37">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I16">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
